--- a/data/trans_dic/P16A_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A_R-Estudios-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.07151122800730207</v>
+        <v>0.07173593847533612</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.09289727503169626</v>
+        <v>0.09233096486586953</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.08853263184734289</v>
+        <v>0.08989424456023196</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1471253018130441</v>
+        <v>0.1487448358323218</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1535420643452915</v>
+        <v>0.1548593055871782</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2256941559021436</v>
+        <v>0.2236528817721881</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2298016354769756</v>
+        <v>0.2278704670761366</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3131740526390854</v>
+        <v>0.3172465108495745</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1220888682087671</v>
+        <v>0.121485915515052</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1721150440515075</v>
+        <v>0.174011715869425</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1734952625989356</v>
+        <v>0.1748304453584605</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.253315494867845</v>
+        <v>0.2516930943629559</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1050615270993999</v>
+        <v>0.1079532449140697</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1374067522042292</v>
+        <v>0.134156530689513</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1341488727409074</v>
+        <v>0.1351578608357753</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.204522912797935</v>
+        <v>0.204698295693097</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1946597011728076</v>
+        <v>0.1937249917392676</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2723789031253275</v>
+        <v>0.2703164042080091</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2858106226540881</v>
+        <v>0.2836928287709439</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.364513508722165</v>
+        <v>0.3674855401029131</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1507650463868375</v>
+        <v>0.1498799533255614</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.206881088308737</v>
+        <v>0.2080981855281339</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2129731038636787</v>
+        <v>0.213426092732355</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2913266250211489</v>
+        <v>0.2914095806552582</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0213692979330843</v>
+        <v>0.02221343583408645</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03861103808888967</v>
+        <v>0.03942569148036344</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04237567015267752</v>
+        <v>0.04185450147057083</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06384272523098365</v>
+        <v>0.06261890589679134</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.06311601946688422</v>
+        <v>0.0626706223311763</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.09589591434487414</v>
+        <v>0.09683451717892877</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1101570640306941</v>
+        <v>0.1093327131422466</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1289752153849768</v>
+        <v>0.1287212829192058</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04354860372707532</v>
+        <v>0.04362245388042557</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.06977361928382686</v>
+        <v>0.06936205035663419</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.07854862111309079</v>
+        <v>0.07820729807577179</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.09864972420563659</v>
+        <v>0.09898829684082601</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03780657344724478</v>
+        <v>0.03931023967154616</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0588444161577046</v>
+        <v>0.05923751407761918</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06273987024754439</v>
+        <v>0.06228187593698787</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.08810714791651894</v>
+        <v>0.08537781393007714</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.08977816023630095</v>
+        <v>0.0880817709541253</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.127500976457854</v>
+        <v>0.128383640607076</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1397977530076552</v>
+        <v>0.1401705157703358</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.155441934447995</v>
+        <v>0.1548711819705237</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05917751310566158</v>
+        <v>0.05941475616195872</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.08776284857970638</v>
+        <v>0.08782786859192335</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.09651430504986301</v>
+        <v>0.09650636978363858</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1157403537497327</v>
+        <v>0.1155864137098445</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.03916948128133539</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.05755886466573698</v>
+        <v>0.05755886466573696</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.0614253856792806</v>
@@ -957,7 +957,7 @@
         <v>0.06054551747315635</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.08786314438761184</v>
+        <v>0.08786314438761182</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.04897246647858908</v>
@@ -969,7 +969,7 @@
         <v>0.04987948089124874</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.07295497675568888</v>
+        <v>0.07295497675568886</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02488150009126579</v>
+        <v>0.02427589628667381</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02965060942556028</v>
+        <v>0.03125584234542392</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02512964286805682</v>
+        <v>0.0245938556080589</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04253168026273511</v>
+        <v>0.04150644731294895</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04285026165571477</v>
+        <v>0.04188002780233273</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03786790595999386</v>
+        <v>0.03941454779594063</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.04177671321172098</v>
+        <v>0.04180024501805529</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.07179504999163504</v>
+        <v>0.07120132388901448</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03671610162715819</v>
+        <v>0.0352027532549366</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.03883563801447025</v>
+        <v>0.0389867489984569</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03728351149393368</v>
+        <v>0.03910952785704926</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.06199392554131804</v>
+        <v>0.06097973039115856</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05748120910469549</v>
+        <v>0.05807036227200607</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07802242674418598</v>
+        <v>0.07879653740316689</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06197920977041544</v>
+        <v>0.06188849534297633</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.07848981023876415</v>
+        <v>0.07377629728837708</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.08698777565424429</v>
+        <v>0.08737148328238169</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.08635905546600975</v>
+        <v>0.08769122158884031</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.08448531150631554</v>
+        <v>0.08730990167083655</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1058741956641548</v>
+        <v>0.1057993707793265</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.06471886809484789</v>
+        <v>0.06384155780188588</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.07369555444025461</v>
+        <v>0.07327990089111996</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.0641148405059303</v>
+        <v>0.07017044229703728</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.08628428672051867</v>
+        <v>0.08522945565427666</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.06266105179417482</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.08671912109702329</v>
+        <v>0.08671912109702332</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.1115078897795158</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0420732608442741</v>
+        <v>0.0426970094682789</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05666260984877042</v>
+        <v>0.05733238129672254</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0555826851294787</v>
+        <v>0.05476262770103294</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.07745803542190498</v>
+        <v>0.07733730517345928</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1014400154049544</v>
+        <v>0.1013560041919524</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.142800919858677</v>
+        <v>0.1444241322026273</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1398135221284486</v>
+        <v>0.1387388284648542</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1640199286024413</v>
+        <v>0.1650245385338871</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.07444903985757284</v>
+        <v>0.07355411007078812</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1039568501603893</v>
+        <v>0.1047104278981834</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1007708497067577</v>
+        <v>0.1009282659106689</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1255753160065264</v>
+        <v>0.1252953556795223</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05711691939304123</v>
+        <v>0.05676361908476334</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0761000695174647</v>
+        <v>0.07614786236281992</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07205177470852484</v>
+        <v>0.07159394968087222</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.09687922154469095</v>
+        <v>0.09631107401796084</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1229058573576801</v>
+        <v>0.1232384754402429</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1683579317694795</v>
+        <v>0.1690483371273794</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1645417115493173</v>
+        <v>0.1639841069301554</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1852249392828798</v>
+        <v>0.1854426668731311</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.08838235495880821</v>
+        <v>0.08770765617422931</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.119877550900516</v>
+        <v>0.1203885539416212</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1157114918291756</v>
+        <v>0.1163989058503582</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1387606773565253</v>
+        <v>0.1397343310394938</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>73780</v>
+        <v>74012</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>90542</v>
+        <v>89990</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>66784</v>
+        <v>67811</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>85116</v>
+        <v>86053</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>201925</v>
+        <v>203657</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>301933</v>
+        <v>299202</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>228574</v>
+        <v>226654</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>257441</v>
+        <v>260789</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>286522</v>
+        <v>285107</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>398006</v>
+        <v>402392</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>303444</v>
+        <v>305780</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>354785</v>
+        <v>352513</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>108394</v>
+        <v>111378</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>133923</v>
+        <v>130755</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>101195</v>
+        <v>101956</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>118322</v>
+        <v>118424</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>256000</v>
+        <v>254770</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>364388</v>
+        <v>361628</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>284284</v>
+        <v>282178</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>299644</v>
+        <v>302087</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>353821</v>
+        <v>351744</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>478400</v>
+        <v>481215</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>372491</v>
+        <v>373284</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>408022</v>
+        <v>408139</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>36187</v>
+        <v>37617</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>75830</v>
+        <v>77430</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>87988</v>
+        <v>86906</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>142405</v>
+        <v>139676</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>100208</v>
+        <v>99500</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>168566</v>
+        <v>170216</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>219025</v>
+        <v>217386</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>280056</v>
+        <v>279504</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>142887</v>
+        <v>143129</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>259681</v>
+        <v>258149</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>319275</v>
+        <v>317888</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>434252</v>
+        <v>435742</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>64022</v>
+        <v>66568</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>115568</v>
+        <v>116340</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>130272</v>
+        <v>129321</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>196529</v>
+        <v>190441</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>142538</v>
+        <v>139845</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>224122</v>
+        <v>225673</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>277960</v>
+        <v>278701</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>337525</v>
+        <v>336286</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>194167</v>
+        <v>194945</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>326632</v>
+        <v>326874</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>392300</v>
+        <v>392268</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>509484</v>
+        <v>508807</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>13720</v>
+        <v>13386</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>14267</v>
+        <v>15040</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>13743</v>
+        <v>13450</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>30265</v>
+        <v>29535</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>20414</v>
+        <v>19952</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>17367</v>
+        <v>18077</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>22941</v>
+        <v>22954</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>52761</v>
+        <v>52324</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>37738</v>
+        <v>36182</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>36498</v>
+        <v>36640</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>40864</v>
+        <v>42865</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>89672</v>
+        <v>88205</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>31696</v>
+        <v>32020</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>37543</v>
+        <v>37915</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>33896</v>
+        <v>33846</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>55852</v>
+        <v>52498</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>41442</v>
+        <v>41625</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>39607</v>
+        <v>40218</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>46394</v>
+        <v>47945</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>77805</v>
+        <v>77750</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>66519</v>
+        <v>65618</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>69260</v>
+        <v>68869</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>70272</v>
+        <v>76909</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>124807</v>
+        <v>123281</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>137855</v>
+        <v>139899</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>193774</v>
+        <v>196064</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>187737</v>
+        <v>184967</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>272705</v>
+        <v>272280</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>342786</v>
+        <v>342502</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>507547</v>
+        <v>513317</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>493835</v>
+        <v>490039</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>611517</v>
+        <v>615262</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>495514</v>
+        <v>489557</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>724996</v>
+        <v>730252</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>696298</v>
+        <v>697386</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>910294</v>
+        <v>908265</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>187146</v>
+        <v>185988</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>260246</v>
+        <v>260409</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>243363</v>
+        <v>241817</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>341081</v>
+        <v>339081</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>415323</v>
+        <v>416447</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>598383</v>
+        <v>600837</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>581178</v>
+        <v>579208</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>690575</v>
+        <v>691387</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>588250</v>
+        <v>583759</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>836027</v>
+        <v>839591</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>799534</v>
+        <v>804284</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1005875</v>
+        <v>1012933</v>
       </c>
     </row>
     <row r="20">
